--- a/data/financial_statements/soci/DOW.xlsx
+++ b/data/financial_statements/soci/DOW.xlsx
@@ -14,9 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -134,9 +194,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -189,12 +246,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -499,72 +553,72 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="U1" s="2">
-        <v>42735</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B2">
         <v>14115000000</v>
@@ -619,8 +673,8 @@
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B3">
         <v>-0.0487</v>
@@ -675,23 +729,23 @@
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B4">
-        <v>12381000000</v>
+        <v>12557000000</v>
       </c>
       <c r="C4">
-        <v>12899000000</v>
+        <v>13101000000</v>
       </c>
       <c r="D4">
-        <v>12402000000</v>
+        <v>12431000000</v>
       </c>
       <c r="E4">
-        <v>11778000000</v>
+        <v>11896000000</v>
       </c>
       <c r="F4">
-        <v>11611000000</v>
+        <v>11717000000</v>
       </c>
       <c r="G4">
         <v>10740000000</v>
@@ -731,23 +785,23 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B5">
-        <v>1734000000</v>
+        <v>1558000000</v>
       </c>
       <c r="C5">
-        <v>2765000000</v>
+        <v>2563000000</v>
       </c>
       <c r="D5">
-        <v>2862000000</v>
+        <v>2833000000</v>
       </c>
       <c r="E5">
-        <v>2586000000</v>
+        <v>2468000000</v>
       </c>
       <c r="F5">
-        <v>3226000000</v>
+        <v>3120000000</v>
       </c>
       <c r="G5">
         <v>3145000000</v>
@@ -787,8 +841,8 @@
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B6">
         <v>191000000</v>
@@ -843,8 +897,8 @@
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B7">
         <v>356000000</v>
@@ -899,8 +953,8 @@
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B8">
         <v>1104000000</v>
@@ -955,8 +1009,8 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B9">
         <v>152000000</v>
@@ -996,23 +1050,23 @@
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B10">
-        <v>155000000</v>
+        <v>41000000</v>
       </c>
       <c r="C10">
-        <v>165000000</v>
+        <v>36000000</v>
       </c>
       <c r="D10">
-        <v>167000000</v>
+        <v>28000000</v>
       </c>
       <c r="E10">
-        <v>170000000</v>
+        <v>20000000</v>
       </c>
       <c r="F10">
-        <v>178000000</v>
+        <v>14000000</v>
       </c>
       <c r="G10">
         <v>187000000</v>
@@ -1052,23 +1106,23 @@
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B11">
-        <v>-103000000</v>
+        <v>473000000</v>
       </c>
       <c r="C11">
-        <v>141000000</v>
+        <v>352000000</v>
       </c>
       <c r="D11">
-        <v>183000000</v>
+        <v>519000000</v>
       </c>
       <c r="E11">
-        <v>264000000</v>
+        <v>168000000</v>
       </c>
       <c r="F11">
-        <v>-265000000</v>
+        <v>758000000</v>
       </c>
       <c r="G11">
         <v>101000000</v>
@@ -1108,8 +1162,8 @@
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B12">
         <v>1001000000</v>
@@ -1164,8 +1218,8 @@
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B13">
         <v>241000000</v>
@@ -1220,8 +1274,8 @@
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B14">
         <v>760000000</v>
@@ -1276,8 +1330,8 @@
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B15">
         <v>21000000</v>
@@ -1332,23 +1386,23 @@
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B16">
-        <v>739000000</v>
+        <v>735000000</v>
       </c>
       <c r="C16">
-        <v>1661000000</v>
+        <v>1652000000</v>
       </c>
       <c r="D16">
-        <v>1569000000</v>
+        <v>1561000000</v>
       </c>
       <c r="E16">
-        <v>1736000000</v>
+        <v>1727000000</v>
       </c>
       <c r="F16">
-        <v>1683000000</v>
+        <v>1675000000</v>
       </c>
       <c r="G16">
         <v>1901000000</v>
@@ -1388,23 +1442,23 @@
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B17">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="D17">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="E17">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="F17">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="G17">
         <v>2.53</v>
@@ -1438,8 +1492,8 @@
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B18">
         <v>1.02</v>
@@ -1488,23 +1542,23 @@
       </c>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B19">
-        <v>714300000</v>
+        <v>714000000</v>
       </c>
       <c r="C19">
-        <v>725700000</v>
+        <v>726000000</v>
       </c>
       <c r="D19">
-        <v>734600000</v>
+        <v>735000000</v>
       </c>
       <c r="E19">
-        <v>743600000</v>
+        <v>738000000</v>
       </c>
       <c r="F19">
-        <v>744500000</v>
+        <v>745000000</v>
       </c>
       <c r="G19">
         <v>747000000</v>
@@ -1544,20 +1598,20 @@
       </c>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B20">
-        <v>718100000</v>
+        <v>718000000</v>
       </c>
       <c r="C20">
-        <v>731500000</v>
+        <v>732000000</v>
       </c>
       <c r="D20">
-        <v>739800000</v>
+        <v>740000000</v>
       </c>
       <c r="E20">
-        <v>749000000</v>
+        <v>743000000</v>
       </c>
       <c r="F20">
         <v>750000000</v>
@@ -1600,23 +1654,23 @@
       </c>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B21">
-        <v>0.1228</v>
+        <v>0.1104</v>
       </c>
       <c r="C21">
-        <v>0.1765</v>
+        <v>0.1636</v>
       </c>
       <c r="D21">
-        <v>0.1875</v>
+        <v>0.1856</v>
       </c>
       <c r="E21">
-        <v>0.18</v>
+        <v>0.1718</v>
       </c>
       <c r="F21">
-        <v>0.2174</v>
+        <v>0.2103</v>
       </c>
       <c r="G21">
         <v>0.2265</v>
@@ -1656,8 +1710,8 @@
       </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B22">
         <v>0.07820000000000001</v>
@@ -1712,8 +1766,8 @@
       </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B23">
         <v>0.0709</v>
@@ -1768,23 +1822,23 @@
       </c>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B24">
-        <v>0.0524</v>
+        <v>0.0521</v>
       </c>
       <c r="C24">
-        <v>0.106</v>
+        <v>0.1055</v>
       </c>
       <c r="D24">
-        <v>0.1028</v>
+        <v>0.1023</v>
       </c>
       <c r="E24">
-        <v>0.1209</v>
+        <v>0.1202</v>
       </c>
       <c r="F24">
-        <v>0.1134</v>
+        <v>0.1129</v>
       </c>
       <c r="G24">
         <v>0.1369</v>
@@ -1824,23 +1878,23 @@
       </c>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B25">
-        <v>1772000000</v>
+        <v>1679000000</v>
       </c>
       <c r="C25">
-        <v>2712000000</v>
+        <v>2595000000</v>
       </c>
       <c r="D25">
-        <v>2624000000</v>
+        <v>2869000000</v>
       </c>
       <c r="E25">
-        <v>2509000000</v>
+        <v>2462000000</v>
       </c>
       <c r="F25">
-        <v>3238000000</v>
+        <v>3232000000</v>
       </c>
       <c r="G25">
         <v>3100000000</v>
@@ -1880,8 +1934,8 @@
       </c>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B26">
         <v>1104000000</v>
@@ -1936,8 +1990,8 @@
       </c>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B27">
         <v>760000000</v>
@@ -1992,8 +2046,8 @@
       </c>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="P28">
         <v>445000000</v>
@@ -2006,23 +2060,23 @@
       </c>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B29">
-        <v>760000000</v>
+        <v>756000000</v>
       </c>
       <c r="C29">
-        <v>1681000000</v>
+        <v>1672000000</v>
       </c>
       <c r="D29">
-        <v>1552000000</v>
+        <v>1544000000</v>
       </c>
       <c r="E29">
-        <v>1761000000</v>
+        <v>1752000000</v>
       </c>
       <c r="F29">
-        <v>1706000000</v>
+        <v>1698000000</v>
       </c>
       <c r="G29">
         <v>1932000000</v>
@@ -2062,8 +2116,8 @@
       </c>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B30">
         <v>1.064</v>
@@ -2118,8 +2172,8 @@
       </c>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B31">
         <v>1.0583</v>
@@ -2174,8 +2228,8 @@
       </c>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="P32">
         <v>0.58</v>
@@ -2188,8 +2242,8 @@
       </c>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="P33">
         <v>0.58</v>
@@ -2202,8 +2256,8 @@
       </c>
     </row>
     <row r="34" spans="1:21">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B34">
         <v>1.064</v>
@@ -2258,8 +2312,8 @@
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B35">
         <v>1.0583</v>
@@ -2314,8 +2368,8 @@
       </c>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B36">
         <v>718100000</v>
@@ -2364,23 +2418,23 @@
       </c>
     </row>
     <row r="37" spans="1:21">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B37">
-        <v>0.1255</v>
+        <v>0.119</v>
       </c>
       <c r="C37">
-        <v>0.1731</v>
+        <v>0.1657</v>
       </c>
       <c r="D37">
-        <v>0.1719</v>
+        <v>0.188</v>
       </c>
       <c r="E37">
-        <v>0.1747</v>
+        <v>0.1714</v>
       </c>
       <c r="F37">
-        <v>0.2182</v>
+        <v>0.2178</v>
       </c>
       <c r="G37">
         <v>0.2233</v>
@@ -2420,8 +2474,8 @@
       </c>
     </row>
     <row r="38" spans="1:21">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B38">
         <v>0.1374</v>
